--- a/data/trans_orig/IP3112_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106AD79C-02A8-4B3B-9D9A-24347D99F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A234F8F-AA77-43C2-83CB-9A866CF2234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF814172-6E46-4E88-B1DF-22D0DE80C1E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A03D1F5A-1986-44D4-BB40-12292EF1CE51}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -110,136 +110,136 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -248,136 +248,133 @@
     <t>14,97%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>12,16%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>50,97%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>51,24%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>51,1%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -386,259 +383,253 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>49,31%</t>
   </si>
   <si>
-    <t>42,58%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>45,77%</t>
   </si>
   <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>4,03%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>17,51%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>49,63%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>28,69%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1053,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA92047-47FC-45A5-9C51-6E79293E3523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98953AB0-BD90-4BA8-9B13-DABDA131566A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,7 +1778,7 @@
         <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -1796,13 +1787,13 @@
         <v>80156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>203</v>
@@ -1811,13 +1802,13 @@
         <v>151966</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1823,13 @@
         <v>244520</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>315</v>
@@ -1847,13 +1838,13 @@
         <v>225278</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>615</v>
@@ -1862,13 +1853,13 @@
         <v>469798</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1874,13 @@
         <v>116612</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>149</v>
@@ -1898,13 +1889,13 @@
         <v>107618</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -1913,13 +1904,13 @@
         <v>224230</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1925,13 @@
         <v>30436</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -1949,13 +1940,13 @@
         <v>11530</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -1964,13 +1955,13 @@
         <v>41966</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1976,13 @@
         <v>16334</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2000,13 +1991,13 @@
         <v>15054</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -2015,13 +2006,13 @@
         <v>31387</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,7 +2068,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2089,13 +2080,13 @@
         <v>36268</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -2104,13 +2095,13 @@
         <v>37369</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -2119,13 +2110,13 @@
         <v>73638</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2131,13 @@
         <v>85053</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -2248,7 +2239,7 @@
         <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2257,13 +2248,13 @@
         <v>3557</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2272,10 +2263,10 @@
         <v>7420</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>148</v>
@@ -2418,7 +2409,7 @@
         <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="M28" s="7">
         <v>323</v>
@@ -2427,13 +2418,13 @@
         <v>242141</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2439,13 @@
         <v>349833</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -2463,13 +2454,13 @@
         <v>311148</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>884</v>
@@ -2478,13 +2469,13 @@
         <v>660981</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2490,13 @@
         <v>174838</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>219</v>
@@ -2514,10 +2505,10 @@
         <v>154453</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>180</v>
@@ -2583,10 +2574,10 @@
         <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2592,13 @@
         <v>24889</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -2616,13 +2607,13 @@
         <v>22596</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -2631,13 +2622,13 @@
         <v>47485</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2684,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3112_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3112_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A234F8F-AA77-43C2-83CB-9A866CF2234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A82F93-9486-4417-8B71-9E69ECCD7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A03D1F5A-1986-44D4-BB40-12292EF1CE51}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22E19427-E424-4B1F-8CB2-E9D9CE14B0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
   <si>
     <t>Menores según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,571 +65,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Tres o más veces al día</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Dos veces al día</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>Una vez al día</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente, no todos los días</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Dos veces al día</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Una vez al día</t>
-  </si>
-  <si>
-    <t>Ocasionalmente, no todos los días</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,8 +1032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98953AB0-BD90-4BA8-9B13-DABDA131566A}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAAEE1E-E4FE-4147-B304-B9CEC62836BF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,243 +1150,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7741</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>6614</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>14355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20589</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>20932</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>41521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13299</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>18517</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>31816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9047</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>16049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2207</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>4413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,304 +1405,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52883</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>1171</v>
+        <v>55271</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N9" s="7">
-        <v>1171</v>
+        <v>108154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>6522</v>
+        <v>76615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>8844</v>
+        <v>71895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>15366</v>
+        <v>148509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="D11" s="7">
-        <v>20259</v>
+        <v>220809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="I11" s="7">
-        <v>18818</v>
+        <v>254510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>615</v>
       </c>
       <c r="N11" s="7">
-        <v>39077</v>
+        <v>475319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D12" s="7">
-        <v>17318</v>
+        <v>126044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I12" s="7">
-        <v>13667</v>
+        <v>127453</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>30984</v>
+        <v>253497</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
-        <v>7</v>
-      </c>
       <c r="D13" s="7">
-        <v>6444</v>
+        <v>11512</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
       <c r="I13" s="7">
-        <v>5804</v>
+        <v>31769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>12248</v>
+        <v>43282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>2154</v>
+        <v>15234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>2200</v>
+        <v>17516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>4354</v>
+        <v>32750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,306 +1713,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>621</v>
       </c>
       <c r="D15" s="7">
-        <v>52697</v>
+        <v>450214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>628</v>
       </c>
       <c r="I15" s="7">
-        <v>49332</v>
+        <v>503143</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>140</v>
+        <v>1249</v>
       </c>
       <c r="N15" s="7">
-        <v>102029</v>
+        <v>953357</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>71810</v>
+        <v>36223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
+        <v>48</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36776</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="7">
-        <v>80156</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>151966</v>
+        <v>72999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
-        <v>244520</v>
+        <v>66078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
-        <v>225278</v>
+        <v>89678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
-        <v>615</v>
+        <v>218</v>
       </c>
       <c r="N17" s="7">
-        <v>469798</v>
+        <v>155755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>116612</v>
+        <v>32788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>107618</v>
+        <v>43627</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="N18" s="7">
-        <v>224230</v>
+        <v>76415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>30436</v>
+        <v>4110</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>11530</v>
+        <v>4516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>41966</v>
+        <v>8626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>16334</v>
+        <v>5487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>15054</v>
+        <v>6543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>31387</v>
+        <v>12029</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,306 +2021,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>628</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7">
-        <v>479712</v>
+        <v>144685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>621</v>
+        <v>233</v>
       </c>
       <c r="I21" s="7">
-        <v>439636</v>
+        <v>181139</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>1249</v>
+        <v>453</v>
       </c>
       <c r="N21" s="7">
-        <v>919348</v>
+        <v>325824</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="D22" s="7">
-        <v>36268</v>
+        <v>120579</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="I22" s="7">
-        <v>37369</v>
+        <v>115285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="N22" s="7">
-        <v>73638</v>
+        <v>235864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>113</v>
+        <v>444</v>
       </c>
       <c r="D23" s="7">
-        <v>85053</v>
+        <v>307476</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="I23" s="7">
-        <v>67053</v>
+        <v>365120</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
-        <v>218</v>
+        <v>884</v>
       </c>
       <c r="N23" s="7">
-        <v>152106</v>
+        <v>672595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="D24" s="7">
-        <v>40908</v>
+        <v>172131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="I24" s="7">
-        <v>33168</v>
+        <v>189597</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="N24" s="7">
-        <v>74076</v>
+        <v>361728</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>3863</v>
+        <v>24669</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>3557</v>
+        <v>43287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="N25" s="7">
-        <v>7420</v>
+        <v>67956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7">
-        <v>6402</v>
+        <v>22927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I26" s="7">
-        <v>5342</v>
+        <v>26264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N26" s="7">
-        <v>11744</v>
+        <v>49192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,369 +2329,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>233</v>
+        <v>907</v>
       </c>
       <c r="D27" s="7">
-        <v>172494</v>
+        <v>647782</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>220</v>
+        <v>935</v>
       </c>
       <c r="I27" s="7">
-        <v>146489</v>
+        <v>739553</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>453</v>
+        <v>1842</v>
       </c>
       <c r="N27" s="7">
-        <v>318983</v>
+        <v>1387335</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>148</v>
-      </c>
-      <c r="D28" s="7">
-        <v>114601</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="7">
-        <v>175</v>
-      </c>
-      <c r="I28" s="7">
-        <v>127540</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="7">
-        <v>323</v>
-      </c>
-      <c r="N28" s="7">
-        <v>242141</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>440</v>
-      </c>
-      <c r="D29" s="7">
-        <v>349833</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="7">
-        <v>444</v>
-      </c>
-      <c r="I29" s="7">
-        <v>311148</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M29" s="7">
-        <v>884</v>
-      </c>
-      <c r="N29" s="7">
-        <v>660981</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>239</v>
-      </c>
-      <c r="D30" s="7">
-        <v>174838</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="7">
-        <v>219</v>
-      </c>
-      <c r="I30" s="7">
-        <v>154453</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M30" s="7">
-        <v>458</v>
-      </c>
-      <c r="N30" s="7">
-        <v>329291</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7">
-        <v>63</v>
-      </c>
-      <c r="D31" s="7">
-        <v>40743</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="7">
-        <v>32</v>
-      </c>
-      <c r="I31" s="7">
-        <v>20891</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M31" s="7">
-        <v>95</v>
-      </c>
-      <c r="N31" s="7">
-        <v>61634</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7">
-        <v>45</v>
-      </c>
-      <c r="D32" s="7">
-        <v>24889</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="7">
-        <v>38</v>
-      </c>
-      <c r="I32" s="7">
-        <v>22596</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="A28" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M32" s="7">
-        <v>83</v>
-      </c>
-      <c r="N32" s="7">
-        <v>47485</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>935</v>
-      </c>
-      <c r="D33" s="7">
-        <v>704904</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="7">
-        <v>908</v>
-      </c>
-      <c r="I33" s="7">
-        <v>636628</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1843</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1341531</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
